--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SDNE_ExptVerified" sheetId="3" r:id="rId1"/>
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="C27" s="17">
-        <f>MAX(C2:C25)</f>
+        <f t="shared" ref="C27:I27" si="0">MAX(C2:C25)</f>
         <v>0.88090000000000002</v>
       </c>
       <c r="D27" s="17">
-        <f>MAX(D2:D25)</f>
+        <f t="shared" si="0"/>
         <v>0.87619999999999998</v>
       </c>
       <c r="E27" s="17">
-        <f>MAX(E2:E25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="17">
-        <f>MAX(F2:F25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="17">
-        <f>MAX(G2:G25)</f>
+        <f t="shared" si="0"/>
         <v>0.86439999999999995</v>
       </c>
       <c r="H27" s="17">
-        <f>MAX(H2:H25)</f>
+        <f t="shared" si="0"/>
         <v>0.99990000000000001</v>
       </c>
       <c r="I27" s="17">
-        <f>MAX(I2:I25)</f>
+        <f t="shared" si="0"/>
         <v>0.99990000000000001</v>
       </c>
     </row>
@@ -1287,31 +1287,31 @@
         <v>12</v>
       </c>
       <c r="C28" s="17">
-        <f>MIN(C2:C25)</f>
+        <f t="shared" ref="C28:I28" si="1">MIN(C2:C25)</f>
         <v>0.40039999999999998</v>
       </c>
       <c r="D28" s="17">
-        <f>MIN(D2:D25)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="E28" s="17">
-        <f>MIN(E2:E25)</f>
+        <f t="shared" si="1"/>
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="F28" s="17">
-        <f>MIN(F2:F25)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="G28" s="17">
-        <f>MIN(G2:G25)</f>
+        <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="H28" s="17">
-        <f>MIN(H2:H25)</f>
+        <f t="shared" si="1"/>
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="I28" s="17">
-        <f>MIN(I2:I25)</f>
+        <f t="shared" si="1"/>
         <v>0.31790000000000002</v>
       </c>
     </row>
@@ -1631,31 +1631,31 @@
         <v>0</v>
       </c>
       <c r="B14" s="33">
-        <f>MAX(B3:B12)</f>
+        <f t="shared" ref="B14:H14" si="0">MAX(B3:B12)</f>
         <v>0.68179999999999996</v>
       </c>
       <c r="C14" s="33">
-        <f>MAX(C3:C12)</f>
+        <f t="shared" si="0"/>
         <v>0.51259999999999994</v>
       </c>
       <c r="D14" s="33">
-        <f>MAX(D3:D12)</f>
+        <f t="shared" si="0"/>
         <v>0.85109999999999997</v>
       </c>
       <c r="E14" s="33">
-        <f>MAX(E3:E12)</f>
+        <f t="shared" si="0"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="F14" s="33">
-        <f>MAX(F3:F12)</f>
+        <f t="shared" si="0"/>
         <v>0.61750000000000005</v>
       </c>
       <c r="G14" s="33">
-        <f>MAX(G3:G12)</f>
+        <f t="shared" si="0"/>
         <v>0.71819999999999995</v>
       </c>
       <c r="H14" s="33">
-        <f>MAX(H3:H12)</f>
+        <f t="shared" si="0"/>
         <v>0.74929999999999997</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:I12"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,31 +3727,31 @@
         <v>0</v>
       </c>
       <c r="C27" s="17">
-        <f>MAX(C2:C25)</f>
+        <f t="shared" ref="C27:I27" si="0">MAX(C2:C25)</f>
         <v>0</v>
       </c>
       <c r="D27" s="17">
-        <f>MAX(D2:D25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="17">
-        <f>MAX(E2:E25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="17">
-        <f>MAX(F2:F25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="17">
-        <f>MAX(G2:G25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="17">
-        <f>MAX(H2:H25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="17">
-        <f>MAX(I2:I25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3760,31 +3760,31 @@
         <v>12</v>
       </c>
       <c r="C28" s="17">
-        <f>MIN(C2:C25)</f>
+        <f t="shared" ref="C28:I28" si="1">MIN(C2:C25)</f>
         <v>0</v>
       </c>
       <c r="D28" s="17">
-        <f>MIN(D2:D25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="17">
-        <f>MIN(E2:E25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28" s="17">
-        <f>MIN(F2:F25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <f>MIN(G2:G25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="17">
-        <f>MIN(H2:H25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="17">
-        <f>MIN(I2:I25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3984,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,42 +4026,28 @@
       <c r="B2" s="7">
         <v>0.25</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>0.25</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>0.5</v>
       </c>
-      <c r="C3" s="34">
-        <v>0.9022</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0.53480000000000005</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="I3" s="34">
-        <v>0.72219999999999995</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -4070,13 +4056,13 @@
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -4085,13 +4071,13 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -4100,13 +4086,13 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -4126,13 +4112,13 @@
       <c r="B8" s="7">
         <v>0.25</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -4141,13 +4127,13 @@
       <c r="B9" s="7">
         <v>0.5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -4156,13 +4142,13 @@
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -4171,13 +4157,13 @@
       <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -4186,13 +4172,13 @@
       <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -4212,13 +4198,13 @@
       <c r="B14" s="7">
         <v>0.25</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -4227,13 +4213,13 @@
       <c r="B15" s="7">
         <v>0.5</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -4242,13 +4228,13 @@
       <c r="B16" s="5">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -4257,13 +4243,13 @@
       <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -4272,13 +4258,13 @@
       <c r="B18" s="7">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -4298,13 +4284,13 @@
       <c r="B20" s="7">
         <v>0.25</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -4313,13 +4299,13 @@
       <c r="B21" s="7">
         <v>0.5</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -4328,13 +4314,13 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -4343,13 +4329,13 @@
       <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -4358,13 +4344,13 @@
       <c r="B24" s="5">
         <v>4</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -4384,13 +4370,13 @@
       <c r="B26" s="5">
         <v>0.25</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -4399,13 +4385,13 @@
       <c r="B27" s="5">
         <v>0.5</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -4414,13 +4400,13 @@
       <c r="B28" s="5">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -4429,13 +4415,13 @@
       <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -4444,13 +4430,13 @@
       <c r="B30" s="5">
         <v>4</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
@@ -4467,37 +4453,37 @@
       </c>
       <c r="C32" s="14">
         <f>MAX(C2:C30)</f>
-        <v>0.9022</v>
+        <v>0</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14">
         <f>MAX(G2:G30)</f>
-        <v>0.62139999999999995</v>
+        <v>0</v>
       </c>
       <c r="H32" s="14">
         <f>MAX(H2:H30)</f>
-        <v>0.92779999999999996</v>
+        <v>0</v>
       </c>
       <c r="I32" s="14">
         <f>MAX(I2:I30)</f>
-        <v>0.72219999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
       <c r="D33" s="14">
         <f>MAX(D2:D30)</f>
-        <v>0.53480000000000005</v>
+        <v>0</v>
       </c>
       <c r="E33" s="14">
         <f>MAX(E2:E30)</f>
-        <v>0.96709999999999996</v>
+        <v>0</v>
       </c>
       <c r="F33" s="14">
         <f>MAX(F2:F30)</f>
-        <v>0.74219999999999997</v>
+        <v>0</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -4512,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,13 +4548,13 @@
       <c r="B2" s="15">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -4577,13 +4563,13 @@
       <c r="B3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -4592,13 +4578,13 @@
       <c r="B4" s="5">
         <v>0.01</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -4607,13 +4593,13 @@
       <c r="B5" s="5">
         <v>0.05</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -4622,13 +4608,13 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -4648,13 +4634,13 @@
       <c r="B8" s="15">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -4663,13 +4649,13 @@
       <c r="B9" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -4678,13 +4664,13 @@
       <c r="B10" s="5">
         <v>0.01</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -4693,13 +4679,13 @@
       <c r="B11" s="5">
         <v>0.05</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
@@ -4708,24 +4694,24 @@
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
@@ -4734,13 +4720,13 @@
       <c r="B14" s="15">
         <v>0</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -4749,13 +4735,13 @@
       <c r="B15" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -4764,13 +4750,13 @@
       <c r="B16" s="5">
         <v>0.01</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -4779,13 +4765,13 @@
       <c r="B17" s="5">
         <v>0.05</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -4794,24 +4780,24 @@
       <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -4820,13 +4806,13 @@
       <c r="B20" s="15">
         <v>0</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -4835,13 +4821,13 @@
       <c r="B21" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -4850,13 +4836,13 @@
       <c r="B22" s="5">
         <v>0.01</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -4865,13 +4851,13 @@
       <c r="B23" s="5">
         <v>0.05</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -4880,24 +4866,24 @@
       <c r="B24" s="5">
         <v>1</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -4906,13 +4892,13 @@
       <c r="B26" s="15">
         <v>0</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -4921,13 +4907,13 @@
       <c r="B27" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -4936,13 +4922,13 @@
       <c r="B28" s="5">
         <v>0.01</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -4951,13 +4937,13 @@
       <c r="B29" s="5">
         <v>0.05</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -4966,13 +4952,13 @@
       <c r="B30" s="5">
         <v>1</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="s">
@@ -4986,15 +4972,15 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33">
-        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
+        <f>MAX(G2:G30)</f>
         <v>0</v>
       </c>
       <c r="H32" s="33">
-        <f t="shared" si="0"/>
+        <f>MAX(H2:H30)</f>
         <v>0</v>
       </c>
       <c r="I32" s="33">
-        <f t="shared" si="0"/>
+        <f>MAX(I2:I30)</f>
         <v>0</v>
       </c>
     </row>
@@ -5010,15 +4996,15 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33">
-        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
+        <f>MIN(G2:G30)</f>
         <v>0</v>
       </c>
       <c r="H33" s="33">
-        <f t="shared" si="1"/>
+        <f>MIN(H2:H30)</f>
         <v>0</v>
       </c>
       <c r="I33" s="33">
-        <f t="shared" si="1"/>
+        <f>MIN(I2:I30)</f>
         <v>0</v>
       </c>
     </row>

--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SDNE_ExptVerified" sheetId="3" r:id="rId1"/>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,13 +4548,27 @@
       <c r="B2" s="15">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="C2">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="I2">
+        <v>0.83009999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -4563,13 +4577,27 @@
       <c r="B3" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="C3">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.83599999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -4578,13 +4606,27 @@
       <c r="B4" s="5">
         <v>0.01</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="C4">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.8236</v>
+      </c>
+      <c r="E4">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.74950000000000006</v>
+      </c>
+      <c r="H4">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.84309999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -4593,13 +4635,27 @@
       <c r="B5" s="5">
         <v>0.05</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="C5">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.79579999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.95689999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.82689999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -4608,13 +4664,27 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="C6">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.31659999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.29659999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -4634,13 +4704,27 @@
       <c r="B8" s="15">
         <v>0</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="C8">
+        <v>0.94679999999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.8417</v>
+      </c>
+      <c r="E8">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.8548</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -4649,13 +4733,27 @@
       <c r="B9" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="C9">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.85580000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -4664,13 +4762,27 @@
       <c r="B10" s="5">
         <v>0.01</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="C10">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.85429999999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -4679,13 +4791,27 @@
       <c r="B11" s="5">
         <v>0.05</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="C11">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.9627</v>
+      </c>
+      <c r="F11">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.85360000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
@@ -4694,13 +4820,27 @@
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="C12">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.7742</v>
+      </c>
+      <c r="I12">
+        <v>0.29530000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
@@ -4720,13 +4860,27 @@
       <c r="B14" s="15">
         <v>0</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="C14">
+        <v>0.9466</v>
+      </c>
+      <c r="D14">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="G14">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="H14">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="I14">
+        <v>0.85309999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -4735,13 +4889,27 @@
       <c r="B15" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="C15">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.75309999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.85119999999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
@@ -4750,13 +4918,27 @@
       <c r="B16" s="5">
         <v>0.01</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="C16">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="H16">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="I16">
+        <v>0.85660000000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -4765,13 +4947,27 @@
       <c r="B17" s="5">
         <v>0.05</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="C17">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="H17">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="I17">
+        <v>0.84919999999999995</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -4780,13 +4976,27 @@
       <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="C18">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.2051</v>
+      </c>
+      <c r="H18">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2853</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -4806,13 +5016,27 @@
       <c r="B20" s="15">
         <v>0</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="C20">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.8498</v>
+      </c>
+      <c r="E20">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="F20">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0.87439999999999996</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -4821,13 +5045,27 @@
       <c r="B21" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="C21">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.8458</v>
+      </c>
+      <c r="E21">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="H21">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.87350000000000005</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -4836,13 +5074,27 @@
       <c r="B22" s="5">
         <v>0.01</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="C22">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.87260000000000004</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -4851,13 +5103,27 @@
       <c r="B23" s="5">
         <v>0.05</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="C23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="F23">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.9819</v>
+      </c>
+      <c r="I23">
+        <v>0.87070000000000003</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -4866,13 +5132,27 @@
       <c r="B24" s="5">
         <v>1</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="C24">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.21</v>
+      </c>
+      <c r="G24">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="I24">
+        <v>0.27400000000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -4892,13 +5172,27 @@
       <c r="B26" s="15">
         <v>0</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="C26">
+        <v>0.9516</v>
+      </c>
+      <c r="D26">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0.9627</v>
+      </c>
+      <c r="F26">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="H26">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.87519999999999998</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -4907,13 +5201,27 @@
       <c r="B27" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="C27" s="13">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="D27">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="I27">
+        <v>0.874</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -4922,13 +5230,27 @@
       <c r="B28" s="5">
         <v>0.01</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="C28">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.71060000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.7782</v>
+      </c>
+      <c r="H28">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.87680000000000002</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -4937,13 +5259,27 @@
       <c r="B29" s="5">
         <v>0.05</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="C29">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.9627</v>
+      </c>
+      <c r="F29">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="I29">
+        <v>0.87450000000000006</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -4952,13 +5288,27 @@
       <c r="B30" s="5">
         <v>1</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="C30">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="H30">
+        <v>0.80389999999999995</v>
+      </c>
+      <c r="I30">
+        <v>0.30909999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="s">
@@ -4966,22 +5316,22 @@
       </c>
       <c r="C32" s="33">
         <f>MAX(C2:C30)</f>
-        <v>0</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33">
         <f>MAX(G2:G30)</f>
-        <v>0</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="H32" s="33">
         <f>MAX(H2:H30)</f>
-        <v>0</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="I32" s="33">
         <f>MAX(I2:I30)</f>
-        <v>0</v>
+        <v>0.87680000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -4990,22 +5340,22 @@
       </c>
       <c r="C33" s="33">
         <f>MIN(C2:C30)</f>
-        <v>0</v>
+        <v>0.88090000000000002</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33">
         <f>MIN(G2:G30)</f>
-        <v>0</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="H33" s="33">
         <f>MIN(H2:H30)</f>
-        <v>0</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="I33" s="33">
         <f>MIN(I2:I30)</f>
-        <v>0</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SDNE_ExptVerified" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>MAX</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Important when: you want to be more confident of your predicted positives.</t>
   </si>
 </sst>
 </file>
@@ -3798,7 +3801,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3807,6 +3810,9 @@
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3824,13 +3830,13 @@
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3838,121 +3844,261 @@
       <c r="A3" s="15">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="B3">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.9768</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.83179999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="32">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="H4">
+        <v>0.81699999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>15</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="B5">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.82230000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>20</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="B6">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="C6">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.75</v>
+      </c>
+      <c r="G6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.83150000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>25</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="B7">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.82579999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>30</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="B8" s="14">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.83079999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>35</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.7369</v>
+      </c>
+      <c r="G9">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.81189999999999996</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>40</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="B10">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.8206</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="B11">
+        <v>0.9425</v>
+      </c>
+      <c r="C11">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.747</v>
+      </c>
+      <c r="G11">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.82169999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>50</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="B12">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="F12">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.8075</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
@@ -3970,10 +4116,19 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="14">
+        <f>MAX(E3:E12)</f>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" ref="F14:H14" si="0">MAX(F3:F12)</f>
+        <v>0.75149999999999995</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.83179999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3984,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -4498,7 +4653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SDNE_ExptVerified" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>MAX</t>
   </si>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -235,11 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -297,6 +306,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +607,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,45 +622,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>0</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0.51819999999999999</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>0.87619999999999998</v>
       </c>
       <c r="E2">
@@ -658,662 +680,662 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>0</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>10</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>0.86009999999999998</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>0.7399</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>0.98029999999999995</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>0.97409999999999997</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>0.84079999999999999</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>0.98240000000000005</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>0.96130000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.48770000000000002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.76910000000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.20630000000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.49170000000000003</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.59940000000000004</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.35170000000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.39069999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>0</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>30</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.78879999999999995</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.44750000000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.57010000000000005</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.3332</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>0.1</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.44819999999999999</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.79149999999999998</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.10489999999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.46920000000000001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.58909999999999996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.3155</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.49809999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>0.1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.58720000000000006</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.82420000000000004</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.35020000000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.56169999999999998</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.69</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.66549999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>0.1</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.41049999999999998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.78969999999999996</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.44890000000000002</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.57230000000000003</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.31790000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>0.1</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>30</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.443</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.78879999999999995</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.46629999999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.58609999999999995</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.3982</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.50749999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>0.2</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.26669999999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.99719999999999998</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>0.2</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>0.45540000000000003</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.75470000000000004</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.15609999999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.47199999999999998</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.58079999999999998</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.2772</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>0.39279999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>0.2</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>20</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>0.40039999999999998</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0.76819999999999999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3.27E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.44230000000000003</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.56120000000000003</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0.12870000000000001</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>0.2</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>30</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>0.47349999999999998</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.75429999999999997</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.1928</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.58879999999999999</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>0.35720000000000002</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>0.4138</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>0.3</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>0.79010000000000002</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0.58120000000000005</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.99909999999999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.99860000000000004</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>0.99390000000000001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>0.99490000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>0.3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>10</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0.86839999999999995</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>0.77349999999999997</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.96319999999999995</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.95499999999999996</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.85450000000000004</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>0.97</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>0.3</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>20</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>0.88090000000000002</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>0.76190000000000002</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>1</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>1</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>0.86439999999999995</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>0.99990000000000001</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>0.3</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>30</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>0.46300000000000002</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0.77669999999999995</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.14929999999999999</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.47720000000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.59109999999999996</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>0.31440000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>0.37769999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>0.4</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>0</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>0.86570000000000003</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.73809999999999998</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.99329999999999996</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.84589999999999999</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>0.96819999999999995</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>0.97529999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>0.4</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>10</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.51880000000000004</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.80669999999999997</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.23089999999999999</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.51339999999999997</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.62690000000000001</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0.5504</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>0.53779999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>0.4</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>0.47420000000000001</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0.73809999999999998</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.21029999999999999</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.48309999999999997</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.58389999999999997</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>0.51249999999999996</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>0.59209999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>0.4</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>30</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>0.79169999999999996</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.7964</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.78700000000000003</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.86899999999999999</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.8165</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.75339999999999996</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>0.82140000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <f t="shared" ref="C27:I27" si="0">MAX(C2:C25)</f>
         <v>0.88090000000000002</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>0.87619999999999998</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="16">
         <f t="shared" si="0"/>
         <v>0.86439999999999995</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <f t="shared" si="0"/>
         <v>0.99990000000000001</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="16">
         <f t="shared" si="0"/>
         <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <f t="shared" ref="C28:I28" si="1">MIN(C2:C25)</f>
         <v>0.40039999999999998</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="16">
         <f t="shared" si="1"/>
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <f t="shared" si="1"/>
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="16">
         <f t="shared" si="1"/>
         <v>0.31790000000000002</v>
       </c>
@@ -1328,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -1339,64 +1361,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0.68179999999999996</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>0.51259999999999994</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.85109999999999997</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0.78029999999999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>0.61750000000000005</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>0.71819999999999995</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>0.74929999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>10</v>
       </c>
       <c r="B4">
@@ -1422,7 +1444,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>15</v>
       </c>
       <c r="B5">
@@ -1448,7 +1470,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>20</v>
       </c>
       <c r="B6">
@@ -1474,7 +1496,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>25</v>
       </c>
       <c r="B7">
@@ -1500,7 +1522,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>30</v>
       </c>
       <c r="B8">
@@ -1526,7 +1548,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>35</v>
       </c>
       <c r="B9">
@@ -1552,7 +1574,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>40</v>
       </c>
       <c r="B10">
@@ -1578,7 +1600,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>45</v>
       </c>
       <c r="B11">
@@ -1604,7 +1626,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>50</v>
       </c>
       <c r="B12">
@@ -1630,34 +1652,34 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <f t="shared" ref="B14:H14" si="0">MAX(B3:B12)</f>
         <v>0.68179999999999996</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <f t="shared" si="0"/>
         <v>0.51259999999999994</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <f t="shared" si="0"/>
         <v>0.85109999999999997</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f t="shared" si="0"/>
         <v>0.61750000000000005</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <f t="shared" si="0"/>
         <v>0.71819999999999995</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <f t="shared" si="0"/>
         <v>0.74929999999999997</v>
       </c>
@@ -1683,39 +1705,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.25</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.25</v>
       </c>
       <c r="C2">
@@ -1741,39 +1763,39 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>0.25</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.52959999999999996</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.7278</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.33139999999999997</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>0.52159999999999995</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0.60740000000000005</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.57630000000000003</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.58389999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>0.25</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4">
@@ -1799,10 +1821,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>0.25</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5">
@@ -1828,10 +1850,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>0.25</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1857,14 +1879,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.25</v>
       </c>
       <c r="C8">
@@ -1890,10 +1912,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>0.5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.5</v>
       </c>
       <c r="C9">
@@ -1919,10 +1941,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>0.5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10">
@@ -1948,10 +1970,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>0.5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11">
@@ -1977,10 +1999,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12">
@@ -2006,14 +2028,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>0.25</v>
       </c>
       <c r="C14">
@@ -2039,10 +2061,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.5</v>
       </c>
       <c r="C15">
@@ -2068,10 +2090,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16">
@@ -2097,10 +2119,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17">
@@ -2126,10 +2148,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>4</v>
       </c>
       <c r="C18">
@@ -2155,14 +2177,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0.25</v>
       </c>
       <c r="C20">
@@ -2188,10 +2210,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>0.5</v>
       </c>
       <c r="C21">
@@ -2217,10 +2239,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22">
@@ -2245,240 +2267,240 @@
         <v>0.56259999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.71950000000000003</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>0.75070000000000003</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.68830000000000002</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.70960000000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.7288</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.77690000000000003</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.77810000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>4</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.7157</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>0.55740000000000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>0.874</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.81559999999999999</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.66220000000000001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.80710000000000004</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.83169999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.25</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>0.44330000000000003</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>0.34749999999999998</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>0.45279999999999998</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>0.4919</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.44619999999999999</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>0.53439999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>0.5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>0.52529999999999999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>0.65700000000000003</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0.39369999999999999</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>0.52080000000000004</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>0.58020000000000005</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>0.55879999999999996</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>0.62539999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.47470000000000001</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>0.56230000000000002</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.38700000000000001</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>0.47870000000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.5151</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.4829</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>0.56669999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.49780000000000002</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>0.73140000000000005</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0.2641</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>0.50129999999999997</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>0.59399999999999997</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>0.64119999999999999</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>0.70740000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>4</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.80359999999999998</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>0.63590000000000002</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>0.97130000000000005</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0.95960000000000001</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>0.76390000000000002</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.94130000000000003</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.94910000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <f>MAX(C2:C30)</f>
         <v>0.80359999999999998</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32">
         <f>MAX(G2:G30)</f>
         <v>0.76390000000000002</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="32">
         <f>MAX(H2:H30)</f>
         <v>0.94130000000000003</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="32">
         <f>MAX(I2:I30)</f>
         <v>0.94910000000000005</v>
       </c>
@@ -2508,39 +2530,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>8</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2566,10 +2588,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3">
@@ -2595,10 +2617,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.01</v>
       </c>
       <c r="C4">
@@ -2624,10 +2646,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.05</v>
       </c>
       <c r="C5">
@@ -2653,10 +2675,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6">
@@ -2682,21 +2704,21 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>16</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>0</v>
       </c>
       <c r="C8">
@@ -2722,10 +2744,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9">
@@ -2751,10 +2773,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.01</v>
       </c>
       <c r="C10">
@@ -2780,10 +2802,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.05</v>
       </c>
       <c r="C11">
@@ -2809,43 +2831,43 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>16</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>1</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0.84279999999999999</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.6946</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>0.98829999999999996</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>0.81379999999999997</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>0.97570000000000001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>0.97650000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>32</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0</v>
       </c>
       <c r="C14">
@@ -2871,10 +2893,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>32</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C15">
@@ -2900,10 +2922,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>32</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.01</v>
       </c>
       <c r="C16">
@@ -2929,10 +2951,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.05</v>
       </c>
       <c r="C17">
@@ -2958,13 +2980,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>32</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>0.24529999999999999</v>
       </c>
       <c r="D18">
@@ -2976,25 +2998,25 @@
       <c r="F18">
         <v>0.32490000000000002</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>0.38569999999999999</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>0.31319999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>64</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>0</v>
       </c>
       <c r="C20">
@@ -3020,10 +3042,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>64</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C21">
@@ -3049,10 +3071,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>64</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.01</v>
       </c>
       <c r="C22">
@@ -3078,10 +3100,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>64</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.05</v>
       </c>
       <c r="C23">
@@ -3107,10 +3129,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>64</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24">
@@ -3136,14 +3158,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>128</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>0</v>
       </c>
       <c r="C26">
@@ -3169,39 +3191,39 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="37">
         <v>128</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0.71660000000000001</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>0.88519999999999999</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>0.84</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>0.66010000000000002</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0.61680000000000001</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>0.76690000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>128</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>0.01</v>
       </c>
       <c r="C28">
@@ -3227,10 +3249,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>128</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>0.05</v>
       </c>
       <c r="C29">
@@ -3256,10 +3278,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>128</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30">
@@ -3285,49 +3307,49 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <f>MAX(C2:C30)</f>
         <v>0.84279999999999999</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32">
         <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
         <v>0.81379999999999997</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="32">
         <f t="shared" si="0"/>
         <v>0.97570000000000001</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="32">
         <f t="shared" si="0"/>
         <v>0.97650000000000003</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <f>MIN(C2:C30)</f>
         <v>0.24529999999999999</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32">
         <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
         <v>0.38569999999999999</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="32">
         <f t="shared" si="1"/>
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="32">
         <f t="shared" si="1"/>
         <v>0.31319999999999998</v>
       </c>
@@ -3342,7 +3364,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,445 +3372,726 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="43" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.6643</v>
+      </c>
+      <c r="H2">
+        <v>0.9536</v>
+      </c>
+      <c r="I2">
+        <v>0.73550000000000004</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>0</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="H3" s="42">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0.80010000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="C4">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.9546</v>
+      </c>
+      <c r="F4">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.63649999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>0</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>30</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.47310000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>0.1</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="H7">
+        <v>0.9647</v>
+      </c>
+      <c r="I7">
+        <v>0.77049999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>0.1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.5454</v>
+      </c>
+      <c r="E8">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.62809999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>0.1</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>20</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.56630000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>0.1</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>30</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.6179</v>
+      </c>
+      <c r="H10">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.66049999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>0.2</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>0</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12">
+        <v>0.9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>0.2</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="C13">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.6855</v>
+      </c>
+      <c r="E13">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="H13">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.66569999999999996</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>0.2</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>20</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="C14">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="E14">
+        <v>0.9355</v>
+      </c>
+      <c r="F14">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.57530000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>0.2</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>30</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="C15">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.59570000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="H15">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.54759999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>0.3</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C17">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.56169999999999998</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>0.3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>10</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="C18">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H18">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="I18">
+        <v>0.67469999999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>0.3</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>20</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="F19">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.62770000000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>0.3</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>30</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.59889999999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>0.4</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>0</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="C22">
+        <v>0.9294</v>
+      </c>
+      <c r="D22">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="G22">
+        <v>0.66790000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I22">
+        <v>0.70009999999999994</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>0.4</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>10</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23">
+        <v>0.9083</v>
+      </c>
+      <c r="D23">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="F23">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.56459999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>0.4</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C24">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="D24">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F24">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I24">
+        <v>0.68959999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>0.4</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>30</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="C25">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="D25">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="H25">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="I25">
+        <v>0.64019999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="17">
-        <f t="shared" ref="C27:I27" si="0">MAX(C2:C25)</f>
+      <c r="C27" s="16">
+        <f>MAX(C2:C25)</f>
+        <v>0.94</v>
+      </c>
+      <c r="D27" s="16">
+        <f>MAX(D2:D25)</f>
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="E27" s="16">
+        <f>MAX(E2:E25)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <f>MAX(F2:F25)</f>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G27" s="16">
+        <f>MAX(G2:G25)</f>
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="H27" s="16">
+        <f>MAX(H2:H25)</f>
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="I27" s="16">
+        <f>MAX(I2:I25)</f>
+        <v>0.80010000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16">
+        <f>MIN(C2:C25)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D28" s="16">
+        <f>MIN(D2:D25)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="17">
-        <f t="shared" si="0"/>
+      <c r="E28" s="16">
+        <f>MIN(E2:E25)</f>
+        <v>0.9355</v>
+      </c>
+      <c r="F28" s="16">
+        <f>MIN(F2:F25)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="17">
-        <f t="shared" si="0"/>
+      <c r="G28" s="16">
+        <f>MIN(G2:G25)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="17">
-        <f t="shared" ref="C28:I28" si="1">MIN(C2:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="H28" s="16">
+        <f>MIN(H2:H25)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="16">
+        <f>MIN(I2:I25)</f>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3807,7 +4110,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
@@ -3815,33 +4118,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>5</v>
       </c>
       <c r="B3">
@@ -3862,12 +4165,12 @@
       <c r="G3">
         <v>0.9768</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>0.83179999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>10</v>
       </c>
       <c r="B4">
@@ -3893,7 +4196,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>15</v>
       </c>
       <c r="B5">
@@ -3905,7 +4208,7 @@
       <c r="D5">
         <v>0.95789999999999997</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.68300000000000005</v>
       </c>
       <c r="F5">
@@ -3919,7 +4222,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>20</v>
       </c>
       <c r="B6">
@@ -3945,7 +4248,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>25</v>
       </c>
       <c r="B7">
@@ -3971,10 +4274,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>30</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>0.94420000000000004</v>
       </c>
       <c r="C8">
@@ -3986,7 +4289,7 @@
       <c r="E8">
         <v>0.67769999999999997</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.75149999999999995</v>
       </c>
       <c r="G8">
@@ -3997,7 +4300,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>35</v>
       </c>
       <c r="B9">
@@ -4023,7 +4326,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>40</v>
       </c>
       <c r="B10">
@@ -4049,7 +4352,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>45</v>
       </c>
       <c r="B11">
@@ -4075,7 +4378,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>50</v>
       </c>
       <c r="B12">
@@ -4101,31 +4404,31 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <f>MAX(E3:E12)</f>
         <v>0.68300000000000005</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f t="shared" ref="F14:H14" si="0">MAX(F3:F12)</f>
         <v>0.75149999999999995</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <f t="shared" si="0"/>
         <v>0.83179999999999998</v>
       </c>
@@ -4140,509 +4443,865 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.25</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.25</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.9466</v>
+      </c>
+      <c r="F2">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.70660000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="40">
         <v>0.25</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="40">
         <v>0.5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="40">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="E3" s="40">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="F3" s="40">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="H3" s="40">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0.66090000000000004</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>0.25</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.62290000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>0.25</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.57920000000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>0.25</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.54169999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>0.5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.25</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.6411</v>
+      </c>
+      <c r="H8">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.69030000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>0.5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.94</v>
+      </c>
+      <c r="I9">
+        <v>0.68799999999999994</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>0.5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.60780000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>0.5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.5625</v>
+      </c>
+      <c r="E11">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.5393</v>
+      </c>
+      <c r="G11">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.58079999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>0.5</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12">
+        <v>0.9133</v>
+      </c>
+      <c r="D12">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.62509999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>0.25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="12">
+        <v>0.9264</v>
+      </c>
+      <c r="D14">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.95</v>
+      </c>
+      <c r="F14">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.6603</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.72019999999999995</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.5</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.5554</v>
+      </c>
+      <c r="G15">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="H15">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.6139</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="F16">
+        <v>0.57410000000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.58360000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="I16">
+        <v>0.62849999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.9456</v>
+      </c>
+      <c r="F17">
+        <v>0.5323</v>
+      </c>
+      <c r="G17">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="H17">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.57050000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>4</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.54610000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.58750000000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0.25</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="H20">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0.70689999999999997</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>0.5</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="G21">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.66820000000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="D22">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.9496</v>
+      </c>
+      <c r="F22">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="G22">
+        <v>0.55669999999999997</v>
+      </c>
+      <c r="H22">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="I22">
+        <v>0.58889999999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="E23">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.56420000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="H23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I23">
+        <v>0.63590000000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>4</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="F24">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.59219999999999995</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.25</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G26">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="H26">
+        <v>0.9446</v>
+      </c>
+      <c r="I26">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>0.5</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="G27">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.9304</v>
+      </c>
+      <c r="I27">
+        <v>0.64600000000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28">
+        <v>0.9123</v>
+      </c>
+      <c r="D28">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.95860000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="I28">
+        <v>0.57779999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="H29">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="I29">
+        <v>0.62139999999999995</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>4</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="39">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="D30" s="39">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="E30" s="39">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="F30" s="39">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="G30" s="39">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="H30" s="39">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I30">
+        <v>0.52869999999999995</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="38">
         <f>MAX(C2:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
+        <v>0.9264</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38">
         <f>MAX(G2:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
+        <v>0.6603</v>
+      </c>
+      <c r="H32" s="38">
         <f>MAX(H2:H30)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="14">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I32" s="38">
         <f>MAX(I2:I30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14">
-        <f>MAX(D2:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="14">
-        <f>MAX(E2:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="14">
-        <f>MAX(F2:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+        <v>0.72019999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="38">
+        <f>MIN(C2:C30)</f>
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38">
+        <f>MIN(G2:G30)</f>
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="H33" s="38">
+        <f>MIN(H2:H30)</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I33" s="38">
+        <f>MIN(I2:I30)</f>
+        <v>0.52869999999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4653,7 +5312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -4668,39 +5327,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>8</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>0</v>
       </c>
       <c r="C2">
@@ -4726,10 +5385,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3">
@@ -4755,10 +5414,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.01</v>
       </c>
       <c r="C4">
@@ -4784,10 +5443,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.05</v>
       </c>
       <c r="C5">
@@ -4813,10 +5472,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6">
@@ -4842,21 +5501,21 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>16</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>0</v>
       </c>
       <c r="C8">
@@ -4882,10 +5541,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9">
@@ -4911,10 +5570,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.01</v>
       </c>
       <c r="C10">
@@ -4940,10 +5599,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.05</v>
       </c>
       <c r="C11">
@@ -4969,10 +5628,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12">
@@ -4998,21 +5657,21 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>32</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0</v>
       </c>
       <c r="C14">
@@ -5038,10 +5697,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>32</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C15">
@@ -5067,10 +5726,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>32</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.01</v>
       </c>
       <c r="C16">
@@ -5096,10 +5755,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.05</v>
       </c>
       <c r="C17">
@@ -5125,10 +5784,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>32</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18">
@@ -5154,21 +5813,21 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>64</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>0</v>
       </c>
       <c r="C20">
@@ -5194,10 +5853,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>64</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C21">
@@ -5223,10 +5882,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>64</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.01</v>
       </c>
       <c r="C22">
@@ -5252,10 +5911,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>64</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.05</v>
       </c>
       <c r="C23">
@@ -5281,10 +5940,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>64</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24">
@@ -5310,21 +5969,21 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>128</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>0</v>
       </c>
       <c r="C26">
@@ -5350,13 +6009,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>128</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>0.95220000000000005</v>
       </c>
       <c r="D27">
@@ -5368,10 +6027,10 @@
       <c r="F27">
         <v>0.72160000000000002</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>0.78059999999999996</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>0.98250000000000004</v>
       </c>
       <c r="I27">
@@ -5379,10 +6038,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>128</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>0.01</v>
       </c>
       <c r="C28">
@@ -5403,15 +6062,15 @@
       <c r="H28">
         <v>0.98270000000000002</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>0.87680000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>128</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>0.05</v>
       </c>
       <c r="C29">
@@ -5437,10 +6096,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>128</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="C30">
@@ -5466,49 +6125,49 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <f>MAX(C2:C30)</f>
         <v>0.95220000000000005</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32">
         <f>MAX(G2:G30)</f>
         <v>0.78059999999999996</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="32">
         <f>MAX(H2:H30)</f>
         <v>0.98270000000000002</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="32">
         <f>MAX(I2:I30)</f>
         <v>0.87680000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <f>MIN(C2:C30)</f>
         <v>0.88090000000000002</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32">
         <f>MIN(G2:G30)</f>
         <v>0.19439999999999999</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="32">
         <f>MIN(H2:H30)</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="32">
         <f>MIN(I2:I30)</f>
         <v>0.27400000000000002</v>
       </c>

--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>MAX</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -319,6 +319,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +1356,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,260 +1400,260 @@
       <c r="A3" s="14">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.74929999999999997</v>
+      <c r="B3" s="47">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="E3" s="47">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="G3" s="47">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="H3" s="47">
+        <v>0.98419999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="C4">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.55069999999999997</v>
-      </c>
-      <c r="E4">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="G4">
-        <v>0.50549999999999995</v>
-      </c>
-      <c r="H4">
-        <v>0.54600000000000004</v>
+      <c r="B4" s="4">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.9395</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.88739999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>0.4975</v>
-      </c>
-      <c r="C5">
-        <v>0.48430000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.51080000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.5292</v>
+      <c r="B5" s="39">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.74109999999999998</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.95230000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>0.46050000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.42020000000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.46510000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.48180000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.48899999999999999</v>
+      <c r="B6" s="39">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.96309999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>0.43830000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.47889999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.44309999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.46029999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="H7">
-        <v>0.45879999999999999</v>
+      <c r="B7" s="39">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0.7379</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>0.44840000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.50539999999999996</v>
-      </c>
-      <c r="D8">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.45369999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.47810000000000002</v>
-      </c>
-      <c r="G8">
-        <v>0.41930000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.4486</v>
+      <c r="B8" s="39">
+        <v>0.5343</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D8" s="39">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="H8" s="39">
+        <v>0.63280000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>0.4345</v>
-      </c>
-      <c r="C9">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.36730000000000002</v>
-      </c>
-      <c r="E9">
-        <v>0.44209999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.47</v>
-      </c>
-      <c r="G9">
-        <v>0.40150000000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.44080000000000003</v>
+      <c r="B9" s="39">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.6895</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>40</v>
       </c>
-      <c r="B10">
-        <v>0.47889999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="D10">
-        <v>0.44529999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.48039999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.49580000000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.45540000000000003</v>
-      </c>
-      <c r="H10">
-        <v>0.47410000000000002</v>
+      <c r="B10" s="39">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="D10" s="39">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.7046</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.8105</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0.73340000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45</v>
       </c>
-      <c r="B11">
-        <v>0.48859999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="D11">
-        <v>0.4758</v>
-      </c>
-      <c r="E11">
-        <v>0.4889</v>
-      </c>
-      <c r="F11">
-        <v>0.495</v>
-      </c>
-      <c r="G11">
-        <v>0.47089999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.49020000000000002</v>
+      <c r="B11" s="39">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0.9798</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0.77090000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>50</v>
       </c>
-      <c r="B12">
-        <v>0.4834</v>
-      </c>
-      <c r="C12">
-        <v>0.50629999999999997</v>
-      </c>
-      <c r="D12">
-        <v>0.46050000000000002</v>
-      </c>
-      <c r="E12">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0.49490000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.46439999999999998</v>
-      </c>
-      <c r="H12">
-        <v>0.48549999999999999</v>
+      <c r="B12" s="39">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="H12" s="39">
+        <v>0.73429999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,32 +1661,32 @@
         <v>0</v>
       </c>
       <c r="B14" s="32">
-        <f t="shared" ref="B14:H14" si="0">MAX(B3:B12)</f>
-        <v>0.68179999999999996</v>
+        <f>MAX(B3:B12)</f>
+        <v>0.96499999999999997</v>
       </c>
       <c r="C14" s="32">
-        <f t="shared" si="0"/>
-        <v>0.51259999999999994</v>
+        <f t="shared" ref="C14:H14" si="0">MAX(C3:C12)</f>
+        <v>0.98519999999999996</v>
       </c>
       <c r="D14" s="32">
         <f t="shared" si="0"/>
-        <v>0.85109999999999997</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="E14" s="32">
         <f t="shared" si="0"/>
-        <v>0.78029999999999999</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="0"/>
-        <v>0.61750000000000005</v>
+        <v>0.96419999999999995</v>
       </c>
       <c r="G14" s="32">
         <f t="shared" si="0"/>
-        <v>0.71819999999999995</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="H14" s="32">
         <f t="shared" si="0"/>
-        <v>0.74929999999999997</v>
+        <v>0.98419999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4033,31 +4038,31 @@
         <v>0</v>
       </c>
       <c r="C27" s="16">
-        <f>MAX(C2:C25)</f>
+        <f t="shared" ref="C27:I27" si="0">MAX(C2:C25)</f>
         <v>0.94</v>
       </c>
       <c r="D27" s="16">
-        <f>MAX(D2:D25)</f>
+        <f t="shared" si="0"/>
         <v>0.79920000000000002</v>
       </c>
       <c r="E27" s="16">
-        <f>MAX(E2:E25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="16">
-        <f>MAX(F2:F25)</f>
+        <f t="shared" si="0"/>
         <v>0.67100000000000004</v>
       </c>
       <c r="G27" s="16">
-        <f>MAX(G2:G25)</f>
+        <f t="shared" si="0"/>
         <v>0.72409999999999997</v>
       </c>
       <c r="H27" s="16">
-        <f>MAX(H2:H25)</f>
+        <f t="shared" si="0"/>
         <v>0.96750000000000003</v>
       </c>
       <c r="I27" s="16">
-        <f>MAX(I2:I25)</f>
+        <f t="shared" si="0"/>
         <v>0.80010000000000003</v>
       </c>
     </row>
@@ -4066,31 +4071,31 @@
         <v>12</v>
       </c>
       <c r="C28" s="16">
-        <f>MIN(C2:C25)</f>
+        <f t="shared" ref="C28:I28" si="1">MIN(C2:C25)</f>
         <v>0.9</v>
       </c>
       <c r="D28" s="16">
-        <f>MIN(D2:D25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="16">
-        <f>MIN(E2:E25)</f>
+        <f t="shared" si="1"/>
         <v>0.9355</v>
       </c>
       <c r="F28" s="16">
-        <f>MIN(F2:F25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="16">
-        <f>MIN(G2:G25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="16">
-        <f>MIN(H2:H25)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I28" s="16">
-        <f>MIN(I2:I25)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
@@ -4101,13 +4106,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
@@ -4148,181 +4158,181 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.94320000000000004</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="C3">
-        <v>0.84379999999999999</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="D3">
-        <v>0.95430000000000004</v>
+        <v>0.94779999999999998</v>
       </c>
       <c r="E3">
-        <v>0.67259999999999998</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="F3">
-        <v>0.74829999999999997</v>
+        <v>0.61150000000000004</v>
       </c>
       <c r="G3">
-        <v>0.9768</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="H3" s="12">
-        <v>0.83179999999999998</v>
+        <v>0.66349999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="46">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="C4">
-        <v>0.81169999999999998</v>
-      </c>
-      <c r="D4">
-        <v>0.95620000000000005</v>
-      </c>
-      <c r="E4">
-        <v>0.67430000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.73609999999999998</v>
-      </c>
-      <c r="G4">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="H4">
-        <v>0.81699999999999995</v>
+      <c r="B4" s="20">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.57989999999999997</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.59989999999999999</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.94369999999999998</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="C5">
-        <v>0.81640000000000001</v>
+        <v>0.62980000000000003</v>
       </c>
       <c r="D5">
-        <v>0.95789999999999997</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.68300000000000005</v>
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.57689999999999997</v>
       </c>
       <c r="F5">
-        <v>0.74370000000000003</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="G5">
-        <v>0.97509999999999997</v>
+        <v>0.93110000000000004</v>
       </c>
       <c r="H5">
-        <v>0.82230000000000003</v>
+        <v>0.63229999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.94379999999999997</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C6">
-        <v>0.84240000000000004</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="D6">
-        <v>0.95509999999999995</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="E6">
-        <v>0.67600000000000005</v>
+        <v>0.57240000000000002</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="G6">
-        <v>0.97599999999999998</v>
+        <v>0.93520000000000003</v>
       </c>
       <c r="H6">
-        <v>0.83150000000000002</v>
+        <v>0.64180000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.94299999999999995</v>
+        <v>0.91859999999999997</v>
       </c>
       <c r="C7">
-        <v>0.84619999999999995</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="D7">
-        <v>0.95379999999999998</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="E7">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="F7">
-        <v>0.74819999999999998</v>
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.62119999999999997</v>
       </c>
       <c r="G7">
-        <v>0.97489999999999999</v>
+        <v>0.9395</v>
       </c>
       <c r="H7">
-        <v>0.82579999999999998</v>
+        <v>0.66020000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>30</v>
       </c>
-      <c r="B8" s="13">
-        <v>0.94420000000000004</v>
+      <c r="B8">
+        <v>0.91559999999999997</v>
       </c>
       <c r="C8">
-        <v>0.84360000000000002</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="D8">
-        <v>0.95540000000000003</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="E8">
-        <v>0.67769999999999997</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.75149999999999995</v>
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.6099</v>
       </c>
       <c r="G8">
-        <v>0.97560000000000002</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="H8">
-        <v>0.83079999999999998</v>
+        <v>0.64149999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.93989999999999996</v>
+        <v>0.91710000000000003</v>
       </c>
       <c r="C9">
-        <v>0.84189999999999998</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="D9">
-        <v>0.95079999999999998</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="E9">
-        <v>0.65569999999999995</v>
+        <v>0.57630000000000003</v>
       </c>
       <c r="F9">
-        <v>0.7369</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="G9">
-        <v>0.97289999999999999</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="H9">
-        <v>0.81189999999999996</v>
+        <v>0.6542</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4330,77 +4340,77 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.94240000000000002</v>
+        <v>0.91569999999999996</v>
       </c>
       <c r="C10">
-        <v>0.84940000000000004</v>
+        <v>0.62429999999999997</v>
       </c>
       <c r="D10">
-        <v>0.95279999999999998</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="E10">
-        <v>0.66659999999999997</v>
+        <v>0.57269999999999999</v>
       </c>
       <c r="F10">
-        <v>0.74690000000000001</v>
+        <v>0.5968</v>
       </c>
       <c r="G10">
-        <v>0.97440000000000004</v>
+        <v>0.9335</v>
       </c>
       <c r="H10">
-        <v>0.8206</v>
+        <v>0.63029999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9425</v>
+        <v>0.9133</v>
       </c>
       <c r="C11">
-        <v>0.84850000000000003</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="D11">
-        <v>0.95299999999999996</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="E11">
-        <v>0.66739999999999999</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="F11">
-        <v>0.747</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="G11">
-        <v>0.97460000000000002</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="H11">
-        <v>0.82169999999999999</v>
+        <v>0.58850000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.94130000000000003</v>
+        <v>0.91420000000000001</v>
       </c>
       <c r="C12">
-        <v>0.82740000000000002</v>
+        <v>0.5403</v>
       </c>
       <c r="D12">
-        <v>0.95399999999999996</v>
+        <v>0.95569999999999999</v>
       </c>
       <c r="E12">
-        <v>0.66679999999999995</v>
+        <v>0.5766</v>
       </c>
       <c r="F12">
-        <v>0.73819999999999997</v>
+        <v>0.55730000000000002</v>
       </c>
       <c r="G12">
-        <v>0.97189999999999999</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="H12">
-        <v>0.8075</v>
+        <v>0.59060000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4419,22 +4429,33 @@
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13">
-        <f>MAX(E3:E12)</f>
-        <v>0.68300000000000005</v>
-      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="13">
-        <f t="shared" ref="F14:H14" si="0">MAX(F3:F12)</f>
-        <v>0.75149999999999995</v>
+        <f>MAX(F3:F12)</f>
+        <v>0.62119999999999997</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
-        <f t="shared" si="0"/>
-        <v>0.83179999999999998</v>
+        <f t="shared" ref="G14:H14" si="0">MAX(H3:H12)</f>
+        <v>0.66349999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <f>MIN(F3:F12)</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H15">
+        <f>MIN(H3:H12)</f>
+        <v>0.58850000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>MAX</t>
   </si>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +219,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -247,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -323,7 +335,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +626,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1370,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,26 +1414,26 @@
       <c r="A3" s="14">
         <v>5</v>
       </c>
-      <c r="B3" s="47">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="C3" s="47">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="D3" s="47">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="E3" s="47">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="G3" s="47">
-        <v>0.99229999999999996</v>
-      </c>
-      <c r="H3" s="47">
-        <v>0.98419999999999996</v>
+      <c r="B3" s="49">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="C3" s="49">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="D3" s="49">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="F3" s="49">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="G3" s="49">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="H3" s="49">
+        <v>0.94040000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,25 +1441,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>0.95579999999999998</v>
+        <v>0.78480000000000005</v>
       </c>
       <c r="C4" s="4">
-        <v>0.97219999999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.9395</v>
+        <v>0.9587</v>
+      </c>
+      <c r="D4" s="48">
+        <v>0.61080000000000001</v>
       </c>
       <c r="E4" s="4">
-        <v>0.94140000000000001</v>
+        <v>0.71289999999999998</v>
       </c>
       <c r="F4" s="4">
-        <v>0.95650000000000002</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="G4" s="4">
-        <v>0.94889999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="H4" s="4">
-        <v>0.88739999999999997</v>
+        <v>0.80669999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1453,25 +1467,25 @@
         <v>15</v>
       </c>
       <c r="B5" s="39">
-        <v>0.80310000000000004</v>
+        <v>0.74729999999999996</v>
       </c>
       <c r="C5" s="39">
-        <v>0.96499999999999997</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="D5" s="39">
-        <v>0.64129999999999998</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="E5" s="39">
-        <v>0.74109999999999998</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="F5" s="39">
-        <v>0.83540000000000003</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="G5" s="39">
-        <v>0.95469999999999999</v>
+        <v>0.83260000000000001</v>
       </c>
       <c r="H5" s="39">
-        <v>0.95230000000000004</v>
+        <v>0.77380000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,25 +1493,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="39">
-        <v>0.74619999999999997</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="C6" s="39">
-        <v>0.97529999999999994</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="D6" s="39">
-        <v>0.51700000000000002</v>
+        <v>0.39329999999999998</v>
       </c>
       <c r="E6" s="39">
-        <v>0.67069999999999996</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="F6" s="39">
-        <v>0.79430000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="G6" s="39">
-        <v>0.96099999999999997</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="H6" s="39">
-        <v>0.96309999999999996</v>
+        <v>0.73219999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,25 +1519,25 @@
         <v>25</v>
       </c>
       <c r="B7" s="39">
-        <v>0.58450000000000002</v>
+        <v>0.6774</v>
       </c>
       <c r="C7" s="39">
-        <v>0.96230000000000004</v>
+        <v>0.94620000000000004</v>
       </c>
       <c r="D7" s="39">
-        <v>0.20669999999999999</v>
+        <v>0.40849999999999997</v>
       </c>
       <c r="E7" s="39">
-        <v>0.54830000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="F7" s="39">
-        <v>0.69850000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="G7" s="39">
-        <v>0.78410000000000002</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="H7" s="39">
-        <v>0.7379</v>
+        <v>0.67090000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,25 +1545,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="39">
-        <v>0.5343</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="C8" s="39">
-        <v>0.97440000000000004</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="D8" s="39">
-        <v>9.4200000000000006E-2</v>
+        <v>0.40989999999999999</v>
       </c>
       <c r="E8" s="39">
-        <v>0.51859999999999995</v>
+        <v>0.61860000000000004</v>
       </c>
       <c r="F8" s="39">
-        <v>0.67689999999999995</v>
+        <v>0.75129999999999997</v>
       </c>
       <c r="G8" s="39">
-        <v>0.71279999999999999</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="H8" s="39">
-        <v>0.63280000000000003</v>
+        <v>0.65490000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,25 +1571,25 @@
         <v>35</v>
       </c>
       <c r="B9" s="39">
-        <v>0.56789999999999996</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="C9" s="39">
-        <v>0.95830000000000004</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="D9" s="39">
-        <v>0.17760000000000001</v>
+        <v>0.38159999999999999</v>
       </c>
       <c r="E9" s="39">
-        <v>0.53879999999999995</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="F9" s="39">
-        <v>0.6895</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="G9" s="39">
-        <v>0.74460000000000004</v>
+        <v>0.7127</v>
       </c>
       <c r="H9" s="39">
-        <v>0.68600000000000005</v>
+        <v>0.64239999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,25 +1597,25 @@
         <v>40</v>
       </c>
       <c r="B10" s="39">
-        <v>0.58630000000000004</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="C10" s="39">
-        <v>0.98519999999999996</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="D10" s="39">
-        <v>0.18740000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E10" s="39">
-        <v>0.54859999999999998</v>
+        <v>0.62529999999999997</v>
       </c>
       <c r="F10" s="39">
-        <v>0.7046</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="G10" s="39">
-        <v>0.8105</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="H10" s="39">
-        <v>0.73340000000000005</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,25 +1623,25 @@
         <v>45</v>
       </c>
       <c r="B11" s="39">
-        <v>0.61480000000000001</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="C11" s="39">
-        <v>0.9798</v>
+        <v>0.9516</v>
       </c>
       <c r="D11" s="39">
-        <v>0.24979999999999999</v>
+        <v>0.4632</v>
       </c>
       <c r="E11" s="39">
-        <v>0.56679999999999997</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="F11" s="39">
-        <v>0.71799999999999997</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="G11" s="39">
-        <v>0.83899999999999997</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="H11" s="39">
-        <v>0.77090000000000003</v>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1635,25 +1649,25 @@
         <v>50</v>
       </c>
       <c r="B12" s="39">
-        <v>0.67559999999999998</v>
+        <v>0.69569999999999999</v>
       </c>
       <c r="C12" s="39">
-        <v>0.98209999999999997</v>
+        <v>0.94889999999999997</v>
       </c>
       <c r="D12" s="39">
-        <v>0.36909999999999998</v>
+        <v>0.44259999999999999</v>
       </c>
       <c r="E12" s="39">
-        <v>0.60940000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="F12" s="39">
-        <v>0.75190000000000001</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="G12" s="39">
-        <v>0.83340000000000003</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="H12" s="39">
-        <v>0.73429999999999995</v>
+        <v>0.71120000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,31 +1676,31 @@
       </c>
       <c r="B14" s="32">
         <f>MAX(B3:B12)</f>
-        <v>0.96499999999999997</v>
+        <v>0.92059999999999997</v>
       </c>
       <c r="C14" s="32">
         <f t="shared" ref="C14:H14" si="0">MAX(C3:C12)</f>
-        <v>0.98519999999999996</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="D14" s="32">
         <f t="shared" si="0"/>
-        <v>0.98880000000000001</v>
+        <v>0.87090000000000001</v>
       </c>
       <c r="E14" s="32">
         <f t="shared" si="0"/>
-        <v>0.98829999999999996</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="0"/>
-        <v>0.96419999999999995</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="G14" s="32">
         <f t="shared" si="0"/>
-        <v>0.99229999999999996</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="H14" s="32">
         <f t="shared" si="0"/>
-        <v>0.98419999999999996</v>
+        <v>0.94040000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2535,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,7 +3394,7 @@
     <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
@@ -3408,8 +3422,35 @@
       <c r="I1" s="43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>0</v>
       </c>
@@ -3437,8 +3478,35 @@
       <c r="I2">
         <v>0.73550000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="47">
+        <v>10</v>
+      </c>
+      <c r="L2" s="47">
+        <v>0</v>
+      </c>
+      <c r="M2" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="P2" s="42">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="R2" s="42">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="S2" s="42">
+        <v>0.80010000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>0</v>
       </c>
@@ -3466,8 +3534,35 @@
       <c r="I3" s="42">
         <v>0.80010000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="N3">
+        <v>0.5454</v>
+      </c>
+      <c r="O3">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.62560000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.62809999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>0</v>
       </c>
@@ -3495,8 +3590,35 @@
       <c r="I4">
         <v>0.63649999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.6855</v>
+      </c>
+      <c r="O4">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="Q4">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="S4">
+        <v>0.66569999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>0</v>
       </c>
@@ -3524,8 +3646,35 @@
       <c r="I5">
         <v>0.47310000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.67469999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="3"/>
@@ -3535,8 +3684,35 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0.4</v>
+      </c>
+      <c r="M6">
+        <v>0.9083</v>
+      </c>
+      <c r="N6">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="O6">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.56459999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>0.1</v>
       </c>
@@ -3564,8 +3740,14 @@
       <c r="I7">
         <v>0.77049999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="24">
+        <v>10</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>0.1</v>
       </c>
@@ -3593,8 +3775,14 @@
       <c r="I8">
         <v>0.62809999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="24">
+        <v>10</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>0.1</v>
       </c>
@@ -3622,8 +3810,14 @@
       <c r="I9">
         <v>0.56630000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="24">
+        <v>10</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>0.1</v>
       </c>
@@ -3651,8 +3845,14 @@
       <c r="I10">
         <v>0.66049999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="24">
+        <v>10</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="3"/>
@@ -3662,8 +3862,14 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="24">
+        <v>10</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>0.2</v>
       </c>
@@ -3691,8 +3897,14 @@
       <c r="I12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="24">
+        <v>10</v>
+      </c>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>0.2</v>
       </c>
@@ -3721,7 +3933,7 @@
         <v>0.66569999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>0.2</v>
       </c>
@@ -3750,7 +3962,7 @@
         <v>0.57530000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>0.2</v>
       </c>
@@ -3779,7 +3991,7 @@
         <v>0.54759999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="3"/>
@@ -4436,7 +4648,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
-        <f t="shared" ref="G14:H14" si="0">MAX(H3:H12)</f>
+        <f t="shared" ref="H14" si="0">MAX(H3:H12)</f>
         <v>0.66349999999999998</v>
       </c>
     </row>

--- a/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
+++ b/results/Hyperparameter_Tuning/FNN_Unbalanced_and_ExptVerified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SDNE_ExptVerified" sheetId="3" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
